--- a/7.xlsx
+++ b/7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniele\source\repos\Probabilidade-e-Estatistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4EE7B25-A567-494F-A915-910618BC8308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A2AD27-1A16-4C8B-B2E0-93542F8E2ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{232021AE-8305-4BAD-BBB9-B4D2C4E0330A}"/>
+    <workbookView xWindow="5604" yWindow="3540" windowWidth="16584" windowHeight="9420" activeTab="2" xr2:uid="{232021AE-8305-4BAD-BBB9-B4D2C4E0330A}"/>
   </bookViews>
   <sheets>
     <sheet name="4" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="134">
   <si>
     <t>IDADE</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>64.0</t>
-  </si>
-  <si>
-    <t>168;0</t>
   </si>
   <si>
     <t>22.85</t>
@@ -868,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BB5EF1-644F-47A6-9936-7CB96D2B0FA8}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,19 +913,19 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -942,19 +939,19 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -965,22 +962,22 @@
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -991,22 +988,22 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>20175</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1032,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
@@ -1064,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1090,25 +1087,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1116,25 +1113,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1142,30 +1139,30 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="5">
         <v>24125</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>4</v>
@@ -1194,25 +1191,25 @@
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1220,25 +1217,25 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1246,25 +1243,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1272,25 +1269,25 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8F6E86-3CE3-4F2C-A371-0EF9608FE02F}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1317,7 +1314,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>4</v>
@@ -1346,25 +1343,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1372,25 +1369,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1398,25 +1395,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1424,30 +1421,30 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>4</v>
@@ -1476,25 +1473,25 @@
         <v>0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1502,25 +1499,25 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1528,25 +1525,25 @@
         <v>2</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1554,25 +1551,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="D13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
